--- a/Books.xlsx
+++ b/Books.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -445,8 +445,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">SourceRule(Without Aliasing)</t>
   </si>
@@ -46,10 +46,17 @@
     <t xml:space="preserve">blah</t>
   </si>
   <si>
-    <t xml:space="preserve">true</t>
+    <t xml:space="preserve">{[S_CMF_K1.account_category == S_ACCOUNT_CATEGORY_VALUES_K1.account_category]
+&amp;&amp; [S_CMF_K1.account_status is null]}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -442,10 +449,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D2" activeCellId="0" pane="topLeft" sqref="D2"/>
+      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="false"/>
@@ -481,10 +488,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.45" outlineLevel="0" r="3">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
